--- a/import_templates/RESET_SCHEDULE_TEMPLATE.xlsx
+++ b/import_templates/RESET_SCHEDULE_TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Randy_JR_Stuff\Randy_Spreadsheets\Reset_Schedule\Reset Schedules\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Randy_JR_Stuff\Python_code\chainsight\ChainSight_v2\import_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F911A0-BDC0-4667-8A7C-B733FBA67E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7470610-07EF-4BC5-8421-1D1E3F89485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22575" yWindow="1335" windowWidth="20370" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESET_SCHEDULE_TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>CHAIN_NAME</t>
   </si>
@@ -61,52 +61,7 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>SPROUTS</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>5265 US 280</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>GULF DISTRIBUTING COMPANY BIRMINGHAM</t>
-  </si>
-  <si>
-    <t>Hoover</t>
-  </si>
-  <si>
-    <t>5250 Medford Drive Ste. 120</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>7504 US 72 West NW Unit B</t>
-  </si>
-  <si>
-    <t>GULF DISTRIBUTING OF ALABAMA</t>
-  </si>
-  <si>
-    <t>Glendale</t>
-  </si>
-  <si>
-    <t>5665 West Bell Road</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>CRESCENT CROWN DISTRIBUTING OF AZ</t>
-  </si>
-  <si>
-    <t>Surprise</t>
-  </si>
-  <si>
-    <t>13759 West Bell Road</t>
+    <t>Manditory Field</t>
   </si>
 </sst>
 </file>
@@ -114,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +206,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +393,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -593,10 +562,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -955,22 +928,20 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1017,134 +988,37 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>482</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45012</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.29166666666666669</v>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>480</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1">
-        <v>45013</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.29166666666666669</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>481</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1">
-        <v>45014</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.29166666666666669</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1">
-        <v>45005</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.29166666666666669</v>
-      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1">
-        <v>45005</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.29166666666666669</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
